--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Ccr5.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H2">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>4.021407666666667</v>
+        <v>0.022105</v>
       </c>
       <c r="N2">
-        <v>12.064223</v>
+        <v>0.066315</v>
       </c>
       <c r="O2">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989593</v>
       </c>
       <c r="P2">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989592</v>
       </c>
       <c r="Q2">
-        <v>653.073778017077</v>
+        <v>4.452825511646667</v>
       </c>
       <c r="R2">
-        <v>5877.664002153692</v>
+        <v>40.07542960482</v>
       </c>
       <c r="S2">
-        <v>0.02451757008330129</v>
+        <v>0.0003652785710772291</v>
       </c>
       <c r="T2">
-        <v>0.02451757008330129</v>
+        <v>0.0003652785710772291</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H3">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.203152</v>
       </c>
       <c r="O3">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="P3">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="Q3">
-        <v>65.13034632804799</v>
+        <v>80.78754308962846</v>
       </c>
       <c r="R3">
-        <v>586.173116952432</v>
+        <v>727.0878878066561</v>
       </c>
       <c r="S3">
-        <v>0.002445110926817592</v>
+        <v>0.006627243358949111</v>
       </c>
       <c r="T3">
-        <v>0.002445110926817592</v>
+        <v>0.006627243358949112</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H4">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I4">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J4">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.71602933333333</v>
+        <v>28.82699233333333</v>
       </c>
       <c r="N4">
-        <v>179.148088</v>
+        <v>86.480977</v>
       </c>
       <c r="O4">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006099</v>
       </c>
       <c r="P4">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006098</v>
       </c>
       <c r="Q4">
-        <v>9697.841183364711</v>
+        <v>5806.90191748064</v>
       </c>
       <c r="R4">
-        <v>87280.5706502824</v>
+        <v>52262.11725732576</v>
       </c>
       <c r="S4">
-        <v>0.3640744872528821</v>
+        <v>0.4763575013786129</v>
       </c>
       <c r="T4">
-        <v>0.3640744872528821</v>
+        <v>0.4763575013786129</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>196.252094</v>
       </c>
       <c r="I5">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J5">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>4.021407666666667</v>
+        <v>0.022105</v>
       </c>
       <c r="N5">
-        <v>12.064223</v>
+        <v>0.066315</v>
       </c>
       <c r="O5">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989593</v>
       </c>
       <c r="P5">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989592</v>
       </c>
       <c r="Q5">
-        <v>263.0698918036625</v>
+        <v>1.446050845956667</v>
       </c>
       <c r="R5">
-        <v>2367.629026232962</v>
+        <v>13.01445761361</v>
       </c>
       <c r="S5">
-        <v>0.00987611924748589</v>
+        <v>0.0001186238682235576</v>
       </c>
       <c r="T5">
-        <v>0.00987611924748589</v>
+        <v>0.0001186238682235576</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>196.252094</v>
       </c>
       <c r="I6">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J6">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,10 +809,10 @@
         <v>1.203152</v>
       </c>
       <c r="O6">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="P6">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="Q6">
         <v>26.23567771114311</v>
@@ -821,10 +821,10 @@
         <v>236.121099400288</v>
       </c>
       <c r="S6">
-        <v>0.0009849347632956674</v>
+        <v>0.002152190971890368</v>
       </c>
       <c r="T6">
-        <v>0.0009849347632956674</v>
+        <v>0.002152190971890368</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>196.252094</v>
       </c>
       <c r="I7">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J7">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.71602933333333</v>
+        <v>28.82699233333333</v>
       </c>
       <c r="N7">
-        <v>179.148088</v>
+        <v>86.480977</v>
       </c>
       <c r="O7">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006099</v>
       </c>
       <c r="P7">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006098</v>
       </c>
       <c r="Q7">
-        <v>3906.465267344031</v>
+        <v>1885.785869712871</v>
       </c>
       <c r="R7">
-        <v>35158.18740609627</v>
+        <v>16972.07282741584</v>
       </c>
       <c r="S7">
-        <v>0.1466557672257133</v>
+        <v>0.1546966450952652</v>
       </c>
       <c r="T7">
-        <v>0.1466557672257133</v>
+        <v>0.1546966450952652</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H8">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I8">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J8">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>4.021407666666667</v>
+        <v>0.022105</v>
       </c>
       <c r="N8">
-        <v>12.064223</v>
+        <v>0.066315</v>
       </c>
       <c r="O8">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989593</v>
       </c>
       <c r="P8">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989592</v>
       </c>
       <c r="Q8">
-        <v>246.0312773314336</v>
+        <v>1.335912167673333</v>
       </c>
       <c r="R8">
-        <v>2214.281495982903</v>
+        <v>12.02320950906</v>
       </c>
       <c r="S8">
-        <v>0.009236458862232604</v>
+        <v>0.000109588863613913</v>
       </c>
       <c r="T8">
-        <v>0.009236458862232608</v>
+        <v>0.000109588863613913</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H9">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I9">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J9">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,22 +995,22 @@
         <v>1.203152</v>
       </c>
       <c r="O9">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="P9">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="Q9">
-        <v>24.53643499327466</v>
+        <v>24.23743340662756</v>
       </c>
       <c r="R9">
-        <v>220.827914939472</v>
+        <v>218.136900659648</v>
       </c>
       <c r="S9">
-        <v>0.0009211421202188391</v>
+        <v>0.00198826902563231</v>
       </c>
       <c r="T9">
-        <v>0.0009211421202188393</v>
+        <v>0.00198826902563231</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H10">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I10">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J10">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.71602933333333</v>
+        <v>28.82699233333333</v>
       </c>
       <c r="N10">
-        <v>179.148088</v>
+        <v>86.480977</v>
       </c>
       <c r="O10">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006099</v>
       </c>
       <c r="P10">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006098</v>
       </c>
       <c r="Q10">
-        <v>3653.449784716685</v>
+        <v>1742.154707782217</v>
       </c>
       <c r="R10">
-        <v>32881.04806245017</v>
+        <v>15679.39237003995</v>
       </c>
       <c r="S10">
-        <v>0.1371571086724463</v>
+        <v>0.1429141520568641</v>
       </c>
       <c r="T10">
-        <v>0.1371571086724464</v>
+        <v>0.1429141520568641</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H11">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I11">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J11">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>4.021407666666667</v>
+        <v>0.022105</v>
       </c>
       <c r="N11">
-        <v>12.064223</v>
+        <v>0.066315</v>
       </c>
       <c r="O11">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989593</v>
       </c>
       <c r="P11">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989592</v>
       </c>
       <c r="Q11">
-        <v>507.9317102738989</v>
+        <v>1.977635798541667</v>
       </c>
       <c r="R11">
-        <v>4571.38539246509</v>
+        <v>17.798722186875</v>
       </c>
       <c r="S11">
-        <v>0.01906867451022626</v>
+        <v>0.0001622313689842596</v>
       </c>
       <c r="T11">
-        <v>0.01906867451022627</v>
+        <v>0.0001622313689842596</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H12">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I12">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J12">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,22 +1181,22 @@
         <v>1.203152</v>
       </c>
       <c r="O12">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="P12">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="Q12">
-        <v>50.65548382846222</v>
+        <v>35.88021512911111</v>
       </c>
       <c r="R12">
-        <v>455.89935445616</v>
+        <v>322.921936162</v>
       </c>
       <c r="S12">
-        <v>0.001901698424699855</v>
+        <v>0.002943361171019376</v>
       </c>
       <c r="T12">
-        <v>0.001901698424699855</v>
+        <v>0.002943361171019376</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H13">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I13">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J13">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>59.71602933333333</v>
+        <v>28.82699233333333</v>
       </c>
       <c r="N13">
-        <v>179.148088</v>
+        <v>86.480977</v>
       </c>
       <c r="O13">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006099</v>
       </c>
       <c r="P13">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006098</v>
       </c>
       <c r="Q13">
-        <v>7542.549133097004</v>
+        <v>2579.022483722514</v>
       </c>
       <c r="R13">
-        <v>67882.94219787304</v>
+        <v>23211.20235350263</v>
       </c>
       <c r="S13">
-        <v>0.2831609279106804</v>
+        <v>0.2115649142698676</v>
       </c>
       <c r="T13">
-        <v>0.2831609279106804</v>
+        <v>0.2115649142698676</v>
       </c>
     </row>
   </sheetData>
